--- a/was_class 설계.xlsx
+++ b/was_class 설계.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>서블릿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ErpContorller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ErpLogic</t>
   </si>
   <si>
@@ -56,7 +52,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContorllerMapping</t>
+    <t>MODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapperConfig.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlSessionFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서블릿매핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;servlet-mapping&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DispatcherServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;context-param&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RequestMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =============================================================================SPRING============================================================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method= POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답방식 : forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope : request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view : WEB-INF/views/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;insert id="erpSignUp"&gt; : { CALL proc_signup(#{emp_name in} , #{resident_no in},#{emp_hp in},#{emp_addr in},
+ #{emp_indate in},#{emp_outdate in},#{dept_code in},#{rank_code in}, #{posit_code in}, #{msg out})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,55 +129,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MODEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapperConfig.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlSessionFactory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서블릿매핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> =======================================POJO=========================================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;servlet-mapping&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> =======================================SPRING========================================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DispatcherServlet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;context-param&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @RequestMapping</t>
+    <t>ControllerMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empLogin(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empSignUp(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empLogin(pMap):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empSignUp(pMap):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="empLogin"&gt; : { CALL proc_login( #{empno in}, #{emp_pw in}, #{msg out}, #{outtime out} )}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller - execute():Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 | erp/empLogin.was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErpServlet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,31 +169,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Contorller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doErp(req,res)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erpLogin(pMap):String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ErpLogin(pMap):void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> =======================================METHOD(공통)========================================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> { CALL proc_login( #{empno}, #{emp_pw}, #{msg}, #{outtime} )}</t>
+    <t>ErpServlet - EmpController | mapping-emp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 | erp/empSignUp.was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErpServlet - ProductController | mapping-product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productShipin(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ============================================================================METHOD(POJO)=========================================================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =============================================================================POJO==============================================================================</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -186,24 +223,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -402,177 +422,129 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,501 +847,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="6" t="s">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="53"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="17"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="6" t="s">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="56"/>
-    </row>
-    <row r="13" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1378,8 +1512,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1404,8 +1546,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1430,8 +1580,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1456,8 +1614,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1482,8 +1648,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1508,8 +1682,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1534,8 +1716,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1560,8 +1750,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1586,8 +1784,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1612,8 +1818,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1638,8 +1852,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1664,8 +1886,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1690,8 +1920,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1716,8 +1954,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1742,8 +1988,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1768,8 +2022,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1794,8 +2056,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1820,8 +2090,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1846,8 +2124,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1872,8 +2158,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1898,8 +2192,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1924,8 +2226,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1950,8 +2260,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1976,8 +2294,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2002,8 +2328,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="1:24" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2028,24 +2362,43 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
+  <mergeCells count="58">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="Q12:Y12"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="I3:J5"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E3:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A10:T10"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="Q7:T9"/>
     <mergeCell ref="I8:J9"/>
@@ -2056,19 +2409,28 @@
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I3:J5"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="Q14:AH14"/>
+    <mergeCell ref="Q15:T15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/was_class 설계.xlsx
+++ b/was_class 설계.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="25875" windowHeight="10995"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="25875" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="클래스설계" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="POJOCustom" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>서블릿</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,40 +120,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;insert id="erpSignUp"&gt; : { CALL proc_signup(#{emp_name in} , #{resident_no in},#{emp_hp in},#{emp_addr in},
+    <t>ErpController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControllerMapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empLogin(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empSignUp(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empLogin(pMap):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empSignUp(pMap):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="empLogin"&gt; : { CALL proc_login( #{empno in}, #{emp_pw in}, #{msg out}, #{outtime out} )}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller - execute():Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErpServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErpServlet - EmpController | mapping-emp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ============================================================================METHOD(POJO)=========================================================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =============================================================================POJO==============================================================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErpServlet - ProductController | mapping-product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;insert id="empSignUp"&gt; : { CALL proc_signup(#{emp_name in} , #{resident_no in},#{emp_hp in},#{emp_addr in},
  #{emp_indate in},#{emp_outdate in},#{dept_code in},#{rank_code in}, #{posit_code in}, #{msg out})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ErpController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ControllerMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empLogin(pMap):String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empSignUp(pMap):String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empLogin(pMap):void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empSignUp(pMap):void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;select id="empLogin"&gt; : { CALL proc_login( #{empno in}, #{emp_pw in}, #{msg out}, #{outtime out} )}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller - execute():Model</t>
+    <t>productShipIn(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productShipOut(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;insert id="productShipIn"&gt; : {  CALL proc_shipin(#{shipcode in}, #{msg out}) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;insert id="productShipOut"&gt; : {  CALL proc_shipout(#{empno in},#{shipcode in},#{shipgoto in},#{msg out}) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 | erp/productShipOut.was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입항 | erp/productShipIn.was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답방식 : redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view : WEB-INF/views/index.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">view : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productShipIn(pMap):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productShipOut(pMap):void</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,35 +229,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ErpServlet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servlet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ErpServlet - EmpController | mapping-emp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입 | erp/empSignUp.was</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>productInsert(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productInsert(pMap):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method= GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;insert id="productInsert"&gt; :  insert into product(#{pd_no int},#{pd_weight double},#{pd_regdate string},#{ship_code string},#{fish_code string}) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ErpServlet - ProductController | mapping-product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productShipin(pMap):String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ============================================================================METHOD(POJO)=========================================================================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> =============================================================================POJO==============================================================================</t>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>===========================================================================EmpController==============================================================================</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================================================================ProductController============================================================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산등록 | erp/productInsert.was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산품조회 | erp/productList.was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productList(pMap):String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productList(pMap):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;select id="productList"&gt; :  select pd_no, fish_code, ship_code, pd_weight, pd_regdate from product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String gap = req.getParameter("gap").toString();</t>
+  </si>
+  <si>
+    <t>Map&lt;String,Object&gt; pMap = new HashMap&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>HashMapBinder hmb = new HashMapBinder(req,gap);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmb.selectBind(pMap);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 폼전송할 때 파라미터에 "gap" 을 사용하여 0이면 get 1이면 post 뷰쪽에서 정의해준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 서블릿에서 getParameter("gap")을 사용해서 꺼낸 후 get방식인지 post방식인지 분별한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송방식 -METHOD-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionServlet aServlet = ControllerMapping.mapping(mapping,pMap);</t>
+  </si>
+  <si>
+    <t>컨트롤러 매핑방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionServlet aServlet=null;</t>
+  </si>
+  <si>
+    <t>if(mapping.indexOf("emp")&gt;-1) {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else if(mapping.indexOf("product")&gt;-1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   aServlet = new EmpController(pMap,mapping);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   aServlet = new ProductController(pMap,mapping);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if("productInsert".equals(mapping)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   List&lt;Map&lt;String,Object&gt;&gt; rList = erpLogic.productInsert(pMap);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   model.setAddAttribute(rList);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   model.setViewPath("views");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   model.setViewName("main");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   model.setViewExtension("jsp");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 메소드 매핑방식은 "상수".equals(mapping)을 이용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메소드 매핑방식 / 응답화면 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 응답화면을 매핑한 메소드 안에서 먼저 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : setViewPath 는 응답화면의 경로를 정하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : setViewName 은 응답화면의 이름을 정하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : setViewExtension 은 응답화면의 확장자를 정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestDispatcher view = null;</t>
+  </si>
+  <si>
+    <t>try {</t>
+  </si>
+  <si>
+    <t>view = new ResultView().resultView(req,res,mapping,fullView);</t>
+  </si>
+  <si>
+    <t>} catch (Exception e) {</t>
+  </si>
+  <si>
+    <t>logger.info(e.toString());</t>
+  </si>
+  <si>
+    <t>if("empLogin".equals(mapping)) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   view = req.getRequestDispatcher(fullView);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   view.forward(req, res);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>} catch (ServletException se, IOException ie) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   se.printStackTrace();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ie.printStackTrace();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답화면 redirect or forward 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 여기에서 mapping으로 분기해서 모든 로직의 응답화면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 응답방식을 redirect로 할지 forward로 할지 정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 낙타표기법을 사용할 때 첫시작 단어는 소문자로 시작한다는점을 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   이용해서 업무별 컨트롤러를 분별한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : indexOf("상수") 는 파라미터안에 들어 간 상수를 발견한다면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   그 상수위치를 반환하기 때문에 -1보다 크다면 존재한다는 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   logger.info("productInsert 결과 "+rList.get(0).get("msg").toString());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>===========================================================================EmpController==============================================================================</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +518,47 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,42 +755,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,6 +831,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,8 +888,68 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,6 +963,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="구부러진 연결선 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11449050" y="3962400"/>
+          <a:ext cx="914400" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:L13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -860,36 +1317,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="24" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -904,28 +1361,28 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
+      <c r="A2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -940,38 +1397,38 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="2" t="s">
+      <c r="A3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -986,30 +1443,30 @@
       <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="20" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1024,32 +1481,32 @@
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1064,28 +1521,28 @@
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1106,30 +1563,30 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="20" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21" t="s">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1149,29 +1606,29 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="20" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1194,20 +1651,20 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="20" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1222,28 +1679,28 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="A10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1259,35 +1716,35 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="15" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1302,216 +1759,210 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
+      <c r="A12" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="12"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="X16" s="3"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -1521,31 +1972,33 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="X17" s="53"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -1555,31 +2008,33 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
+      <c r="X18" s="53"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -1589,61 +2044,83 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -1657,61 +2134,83 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -1725,61 +2224,81 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -1793,61 +2312,81 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -1861,7 +2400,7 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1895,7 +2434,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1903,7 +2442,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1929,7 +2468,7 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1963,7 +2502,7 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1997,7 +2536,7 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2031,7 +2570,7 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2371,13 +2910,146 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
     </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="Q12:Y12"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
+  <mergeCells count="97">
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q25:AC25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="Q23:AC23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="A18:T18"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q15:AH15"/>
+    <mergeCell ref="Q16:T16"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="Q3:T3"/>
@@ -2410,27 +3082,35 @@
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="A6:T6"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I16:L16"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="Q14:AH14"/>
-    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="M22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2440,14 +3120,491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="M2" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="M3" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="M4" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="M5" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+    </row>
+    <row r="7" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M8" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="M9" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+    </row>
+    <row r="10" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="M10" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="M11" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="M12" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="M13" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="M14" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="M16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="M17" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+    </row>
+    <row r="18" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+    </row>
+    <row r="19" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M20" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+    </row>
+    <row r="21" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+    </row>
+    <row r="22" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+    </row>
+    <row r="24" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="M24" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="M25" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M26" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M27" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M28" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M29" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M30" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M31" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M32" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+    </row>
+    <row r="33" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M33" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
